--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 academico\001 Doctorado Economia UCAB\d tesis problema ahorro\5.4 experimentos\cuestionario\proyecto_encuesta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CDE198-854B-4578-AE78-99C1B0E8B735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC0108-C3E7-4440-809C-67C6610869F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{951E78D8-AB70-4378-8378-F124DB33DEFF}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Prefiero evitar perder $100 que ganar $200.</t>
   </si>
   <si>
-    <t>likert</t>
-  </si>
-  <si>
     <t>1: Totalmente en desacuerdo, 2: En desacuerdo, 3: Neutral, 4: De acuerdo, 5: Totalmente de acuerdo</t>
   </si>
   <si>
@@ -88,22 +85,10 @@
     <t>A menudo asigno mi dinero a categorías específicas (por ejemplo, ‘para diversión’, ‘para ahorro’, ‘para emergencias’) y evito usarlo para otros fines, incluso si fuera más lógico o beneficioso hacerlo</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>pregunta</t>
-  </si>
-  <si>
-    <t>escala</t>
-  </si>
-  <si>
-    <t>posibles respuestas</t>
-  </si>
-  <si>
-    <t>Binario</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1: De acuerdo, 2: Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>1: SI, 2: NO, 3: NO SE</t>
   </si>
 </sst>
 </file>
@@ -587,11 +572,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -970,312 +952,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A896E8D-0727-4477-AAF2-6FF9BCA79489}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="2" max="2" width="94.140625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="88.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4">
         <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
+      <c r="C5">
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6">
         <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
+      <c r="C7">
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
+      <c r="C8">
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
+      <c r="C10">
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
+      <c r="C11">
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
+      <c r="C12">
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
+      <c r="C13">
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
+      <c r="C14">
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
+      <c r="C15">
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
+      <c r="C16">
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
+      <c r="C17">
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
+      <c r="C18">
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>1</v>
+      <c r="C19">
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>1</v>
+      <c r="C20">
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 academico\001 Doctorado Economia UCAB\d tesis problema ahorro\5.4 experimentos\cuestionario\proyecto_encuesta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC0108-C3E7-4440-809C-67C6610869F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB50F0E-2CAF-4AF8-8990-2FC97D064D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{951E78D8-AB70-4378-8378-F124DB33DEFF}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Prefiero evitar perder $100 que ganar $200.</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>1: SI, 2: NO, 3: NO SE</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>preguntas</t>
+  </si>
+  <si>
+    <t>escalas</t>
+  </si>
+  <si>
+    <t>posibles_respuestas</t>
   </si>
 </sst>
 </file>
@@ -952,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A896E8D-0727-4477-AAF2-6FF9BCA79489}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,109 +979,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1080,38 +1092,38 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1122,10 +1134,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1136,10 +1148,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1150,10 +1162,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1164,10 +1176,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1178,10 +1190,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1192,10 +1204,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1206,10 +1218,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1220,10 +1232,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -1234,15 +1246,29 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
     </row>

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 academico\001 Doctorado Economia UCAB\d tesis problema ahorro\5.4 experimentos\cuestionario\proyecto_encuesta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB50F0E-2CAF-4AF8-8990-2FC97D064D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FD483D-ACEE-46D1-91BD-AEC0EC094880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{951E78D8-AB70-4378-8378-F124DB33DEFF}"/>
   </bookViews>
@@ -94,13 +94,13 @@
     <t>item</t>
   </si>
   <si>
-    <t>preguntas</t>
-  </si>
-  <si>
     <t>escalas</t>
   </si>
   <si>
     <t>posibles_respuestas</t>
+  </si>
+  <si>
+    <t>pregunta</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,13 +983,13 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 academico\001 Doctorado Economia UCAB\d tesis problema ahorro\5.4 experimentos\cuestionario\proyecto_encuesta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FD483D-ACEE-46D1-91BD-AEC0EC094880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40140413-5CED-46C5-A48A-361AE2218690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{951E78D8-AB70-4378-8378-F124DB33DEFF}"/>
   </bookViews>
@@ -97,10 +97,10 @@
     <t>escalas</t>
   </si>
   <si>
-    <t>posibles_respuestas</t>
-  </si>
-  <si>
     <t>pregunta</t>
+  </si>
+  <si>
+    <t>posibles respuestas</t>
   </si>
 </sst>
 </file>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A896E8D-0727-4477-AAF2-6FF9BCA79489}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,13 +983,13 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 academico\001 Doctorado Economia UCAB\d tesis problema ahorro\5.4 experimentos\cuestionario\proyecto_encuesta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40140413-5CED-46C5-A48A-361AE2218690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0DF81D-9B6E-4632-B135-02850A8008C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{951E78D8-AB70-4378-8378-F124DB33DEFF}"/>
   </bookViews>
@@ -94,13 +94,13 @@
     <t>item</t>
   </si>
   <si>
-    <t>escalas</t>
-  </si>
-  <si>
     <t>pregunta</t>
   </si>
   <si>
     <t>posibles respuestas</t>
+  </si>
+  <si>
+    <t>escala</t>
   </si>
 </sst>
 </file>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A896E8D-0727-4477-AAF2-6FF9BCA79489}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,13 +983,13 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 academico\001 Doctorado Economia UCAB\d tesis problema ahorro\5.4 experimentos\cuestionario\proyecto_encuesta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0DF81D-9B6E-4632-B135-02850A8008C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047B8294-C4F0-4C81-8811-A832427BA963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{951E78D8-AB70-4378-8378-F124DB33DEFF}"/>
   </bookViews>
@@ -97,10 +97,10 @@
     <t>pregunta</t>
   </si>
   <si>
-    <t>posibles respuestas</t>
-  </si>
-  <si>
     <t>escala</t>
+  </si>
+  <si>
+    <t>posibles_respuestas</t>
   </si>
 </sst>
 </file>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A896E8D-0727-4477-AAF2-6FF9BCA79489}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,10 +986,10 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01 academico\001 Doctorado Economia UCAB\d tesis problema ahorro\5.4 experimentos\cuestionario\proyecto_encuesta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047B8294-C4F0-4C81-8811-A832427BA963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F59BB5-37CC-4612-A663-4185FDCD513E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{951E78D8-AB70-4378-8378-F124DB33DEFF}"/>
   </bookViews>
